--- a/data/keyword_driven_test_cases.xlsx
+++ b/data/keyword_driven_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9495"/>
+    <workbookView xWindow="240" yWindow="17" windowWidth="16097" windowHeight="9463"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -37,9 +37,6 @@
     <t>TC001</t>
   </si>
   <si>
-    <t>TC002</t>
-  </si>
-  <si>
     <t>Open Google homepage</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>xpath</t>
   </si>
   <si>
-    <t>//input[@name='q']</t>
-  </si>
-  <si>
     <t>https://www.google.com</t>
   </si>
   <si>
@@ -80,6 +74,21 @@
   </si>
   <si>
     <t>Doodle</t>
+  </si>
+  <si>
+    <t>//*[@title="Search"]</t>
+  </si>
+  <si>
+    <t>https://www.bing.com</t>
+  </si>
+  <si>
+    <t>//*[@type="search"]</t>
+  </si>
+  <si>
+    <t>(//*[contains(@class,'tptt')])[1]</t>
+  </si>
+  <si>
+    <t>openai.com</t>
   </si>
 </sst>
 </file>
@@ -452,11 +461,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.53515625" customWidth="1"/>
+    <col min="5" max="5" width="17.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -484,13 +496,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -498,19 +510,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -518,19 +530,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -538,81 +550,75 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -621,5 +627,6 @@
     <hyperlink ref="F6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/data/keyword_driven_test_cases.xlsx
+++ b/data/keyword_driven_test_cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -64,31 +64,28 @@
     <t>xpath</t>
   </si>
   <si>
-    <t>https://www.google.com</t>
-  </si>
-  <si>
     <t>OpenAI</t>
   </si>
   <si>
     <t>Enter</t>
   </si>
   <si>
-    <t>Doodle</t>
-  </si>
-  <si>
-    <t>//*[@title="Search"]</t>
-  </si>
-  <si>
     <t>https://www.bing.com</t>
   </si>
   <si>
     <t>//*[@type="search"]</t>
   </si>
   <si>
-    <t>(//*[contains(@class,'tptt')])[1]</t>
-  </si>
-  <si>
-    <t>openai.com</t>
+    <t>open</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>verifyloc</t>
+  </si>
+  <si>
+    <t>(//*[@aria-level="2"])[3]</t>
   </si>
 </sst>
 </file>
@@ -462,7 +459,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -502,7 +499,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -519,10 +516,10 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -539,10 +536,10 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -555,17 +552,14 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -573,10 +567,13 @@
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -587,13 +584,16 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -604,21 +604,30 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/keyword_driven_test_cases.xlsx
+++ b/data/keyword_driven_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="17" windowWidth="16097" windowHeight="9463"/>
+    <workbookView xWindow="240" yWindow="17" windowWidth="16097" windowHeight="5837"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -86,6 +86,24 @@
   </si>
   <si>
     <t>(//*[@aria-level="2"])[3]</t>
+  </si>
+  <si>
+    <t>get text from element</t>
+  </si>
+  <si>
+    <t>Verify it contains</t>
+  </si>
+  <si>
+    <t>gettext</t>
+  </si>
+  <si>
+    <t>asserttext</t>
+  </si>
+  <si>
+    <t>//title</t>
+  </si>
+  <si>
+    <t>open - Search</t>
   </si>
 </sst>
 </file>
@@ -456,16 +474,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
     <col min="2" max="2" width="28.53515625" customWidth="1"/>
-    <col min="5" max="5" width="17.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.07421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -628,6 +647,43 @@
       </c>
       <c r="F9" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/keyword_driven_test_cases.xlsx
+++ b/data/keyword_driven_test_cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>TC002</t>
   </si>
   <si>
     <t>verifyloc</t>
@@ -477,7 +474,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -576,9 +573,6 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -590,9 +584,6 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -610,9 +601,6 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -630,60 +618,51 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
         <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/keyword_driven_test_cases.xlsx
+++ b/data/keyword_driven_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="17" windowWidth="16097" windowHeight="5837"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="5835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>open - Search</t>
+  </si>
+  <si>
+    <t>TC002</t>
   </si>
 </sst>
 </file>
@@ -474,14 +477,15 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.53515625" customWidth="1"/>
-    <col min="5" max="5" width="21.07421875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -568,11 +572,11 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -584,6 +588,9 @@
       </c>
     </row>
     <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -601,6 +608,9 @@
       </c>
     </row>
     <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -618,6 +628,9 @@
       </c>
     </row>
     <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -635,6 +648,9 @@
       </c>
     </row>
     <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -649,6 +665,9 @@
       </c>
     </row>
     <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
